--- a/biology/Botanique/Liste_des_espèces_végétales_non_cultivées_protégées_sur_l’ensemble_du_territoire_algérien/Liste_des_espèces_végétales_non_cultivées_protégées_sur_l’ensemble_du_territoire_algérien.xlsx
+++ b/biology/Botanique/Liste_des_espèces_végétales_non_cultivées_protégées_sur_l’ensemble_du_territoire_algérien/Liste_des_espèces_végétales_non_cultivées_protégées_sur_l’ensemble_du_territoire_algérien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_non_cultiv%C3%A9es_prot%C3%A9g%C3%A9es_sur_l%E2%80%99ensemble_du_territoire_alg%C3%A9rien</t>
+          <t>Liste_des_espèces_végétales_non_cultivées_protégées_sur_l’ensemble_du_territoire_algérien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste des plantes protégées en Algérie est fixée par le décret exécutif no 12-03 du 10 Safar 1433 correspondant au 4 janvier 2012 fixant la liste des espèces végétales[1] non cultivées protégées, publié au Journal officiel de la République Algérienne no 03 du 18 janvier 2012[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste des plantes protégées en Algérie est fixée par le décret exécutif no 12-03 du 10 Safar 1433 correspondant au 4 janvier 2012 fixant la liste des espèces végétales non cultivées protégées, publié au Journal officiel de la République Algérienne no 03 du 18 janvier 2012.
 Selon l'article 4, sont interdits : la destruction, la coupe, la mutilation, l’arrachage, la cueillette de végétaux de ces espèces ou de leurs fructifications, ou de toute autre forme prise par ces espèces au cours de leur cycle biologique, leur transport, leur utilisation, leur mise en vente, leur vente ou leur achat, ainsi que la détention des spécimens prélevés dans leur milieu naturel.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_non_cultiv%C3%A9es_prot%C3%A9g%C3%A9es_sur_l%E2%80%99ensemble_du_territoire_alg%C3%A9rien</t>
+          <t>Liste_des_espèces_végétales_non_cultivées_protégées_sur_l’ensemble_du_territoire_algérien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Méthodologie de révision</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste du décret comportant de nombreuses erreurs typographiques ou nomenclaturales, elle a été corrigée grâce à la Base de données des plantes d'Afrique et au World Checklist of Selected Plant Families[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste du décret comportant de nombreuses erreurs typographiques ou nomenclaturales, elle a été corrigée grâce à la Base de données des plantes d'Afrique et au World Checklist of Selected Plant Families.
 Quand deux noms sont accolés par le signe égal, le deuxième est celui du décret, le premier est le nom actualisé. Comme la liste ne donne pas de noms d'auteurs, il a été recherché dans la Nouvelle Flore d'Algérie pour éviter toute confusion.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_non_cultiv%C3%A9es_prot%C3%A9g%C3%A9es_sur_l%E2%80%99ensemble_du_territoire_alg%C3%A9rien</t>
+          <t>Liste_des_espèces_végétales_non_cultivées_protégées_sur_l’ensemble_du_territoire_algérien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,14 +558,16 @@
           <t>Ptéridophytes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cheilanthes pteridioides (Reichard) C.Chr.
 Gymnocarpium robertianum (Hoffm.) Newm. = Dryopteris disjuncta subsp. calcarea (Sm.) Rouy
 Isoetes velata subsp. dubia (Gennari) Batt. &amp; Trab.
-Marsilea aegyptiaca Willd[4].
-Marsilea minuta L. = Marsilea diffusa Lepr[5].
+Marsilea aegyptiaca Willd.
+Marsilea minuta L. = Marsilea diffusa Lepr.
 Ophioglossum vulgatum L.
 Paraceterach marantae (L.) R.M.Tryon = Notholaena marantae (L.) Desv.
 Salvinia natans (L.) All.
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_non_cultiv%C3%A9es_prot%C3%A9g%C3%A9es_sur_l%E2%80%99ensemble_du_territoire_alg%C3%A9rien</t>
+          <t>Liste_des_espèces_végétales_non_cultivées_protégées_sur_l’ensemble_du_territoire_algérien</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Lichens 95 espèces protégées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Bryoria capillaris (Ach.) Brodo &amp; D.Hawksw. = Alectoria cana.
@@ -601,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_non_cultiv%C3%A9es_prot%C3%A9g%C3%A9es_sur_l%E2%80%99ensemble_du_territoire_alg%C3%A9rien</t>
+          <t>Liste_des_espèces_végétales_non_cultivées_protégées_sur_l’ensemble_du_territoire_algérien</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,27 +639,72 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gymnospermes
+          <t>Gymnospermes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Abies numidica Carrière
 En danger critique d'extinction.
-Cedrus atlantica (Endl.) Carrière[6]
+Cedrus atlantica (Endl.) Carrière
 Cupressus dupreziana A.Camus
 En danger.
-Ephedra alata Decne. subsp. alata[7]
+Ephedra alata Decne. subsp. alata
 Juniperus communis subsp. hemisphaerica (C.Presl) Nyman = Juniperus communis var. hemisphaerica (C.Presl) Parl.
 Juniperus oxycedrus L.
 Juniperus phoenicea L.
 Juniperus sabina L.
 Juniperus thurifera subsp. africana (Maire) Gauquelin, Idr.Hass. &amp; P.Lebreton = Juniperus thurifera var. africana Maire
-Pinus nigra subsp. mauritanica (Maire &amp; Peyerimh.) Heywood[8]
+Pinus nigra subsp. mauritanica (Maire &amp; Peyerimh.) Heywood
 Taxus baccata L.
 Tetraclinis articulata (Vahl) Mast.
-Angiospermes
-Monocotyledones
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_non_cultivées_protégées_sur_l’ensemble_du_territoire_algérien</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_non_cultiv%C3%A9es_prot%C3%A9g%C3%A9es_sur_l%E2%80%99ensemble_du_territoire_alg%C3%A9rien</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Spermatophytes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Angiospermes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Monocotyledones</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Agropyropsis lolium (Balansa ex Coss. &amp; Durieu) A.Camus
 Endémique algérienne
 Allium massaessylum Batt. &amp; Trab. = Allium moly subsp. massaessylum (Batt. &amp; Trab.) Vindt
-Allium pardoi Loscos[9].
+Allium pardoi Loscos.
 Allium trichocnemis J.Gay = Allium seirotrichum Ducell. &amp; Maire
 Anacamptis collina (Banks &amp; Sol. ex Russell) R.M.Bateman, Pridgeon &amp; Chase = Orchis collina Banks &amp; Sol. ex Russell
 Anacamptis coriophora (L.) R.M.Bateman, Pridgeon &amp; Chase subsp. coriophora = Orchis coriophora subsp. martrinii (Timb.-Lagr.) Nyman.
@@ -657,7 +720,7 @@
 Butomus umbellatus L.
 Carex elata All.
 Carex hirta L.
-Carex mairei Coss. &amp; Germain[10]
+Carex mairei Coss. &amp; Germain
 Carex pseudocyperus L.
 Catabrosa aquatica (L.) P.Beauv.
 Coelachyrum brevifolium Nees = Coelachyrum oligobrachiatum A.Camus
@@ -688,7 +751,7 @@
 Najas marina subsp. arsenariensis (Maire) Triest = Najas arsenariensis Maire
 Endémique algérienne.
 En danger critique d'extinction (CR).
-Najas pectinata (Parl.) Magnus[11]
+Najas pectinata (Parl.) Magnus
 Neottia nidus-avis (L.) Rich.
 Ophrys fusca subsp. pallida (Raf.) E.G.Camus = Ophrys pallida Raf.
 Ophrys sphegodes subsp. moesziana Soó
@@ -704,12 +767,12 @@
 Phalaris arundinacea L.
 Platanthera algeriensis Batt. &amp; Trab.
 Poa nemoralis L.
-Posidonia oceanica (L.) Delile[12]
+Posidonia oceanica (L.) Delile
 Potamogeton hoggarensis Dandy
 Endémique algérienne, présente dans le Hoggar.
 Pycreus flavidus (Retz.) T.Koyama = Cyperus globosus All.
 Pycreus polystachyos (Rottb.) P.Beauv. = Cyperus polystachyos Rottb.
-Rhynchospora modesti-lucennoi Castrov. = Rhynchospora glauca Vahl[13]
+Rhynchospora modesti-lucennoi Castrov. = Rhynchospora glauca Vahl
 En danger (EN).
 Romulea columnae subsp. columnae. = Romulea battandieri Bég.
 Romulea penzigii Bég.
@@ -722,10 +785,50 @@
 Trisetaria nitida (Desf.) Maire
 Typha elephantina Roxb.
 Typha latifolia L.
-Vallisneria spiralis L[14].
+Vallisneria spiralis L.
 Vulpia obtusa Trab.
 Wolffia arrhiza (L.) Horkel ex Wimm
-Dicotyledones
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_non_cultivées_protégées_sur_l’ensemble_du_territoire_algérien</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_non_cultiv%C3%A9es_prot%C3%A9g%C3%A9es_sur_l%E2%80%99ensemble_du_territoire_alg%C3%A9rien</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Spermatophytes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Angiospermes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Dicotyledones</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acacia laeta R.Br. ex Benth.
 Acacia nilotica subsp. tomentosa (Benth.) Brenan = Acacia scorpioides (L.) W.Wight
 Acacia seyal Delile
@@ -745,12 +848,12 @@
 Anticharis senegalensis (Walp.) Bhandari = Anticharis linearis (Benth.) Hochst. ex Asch.
 Anvillea garcinii subsp. radiata (Coss. &amp; Durieu) Anderb. = Anvillea radiata var. australis (L.Chevall.) Diels
 Aptosimum pumilum (Hochst.) Benth.
-Aquilegia vulgaris L[15].
+Aquilegia vulgaris L.
 Arabis doumetii Coss.
 Argania spinosa (L.) Skeels
 Argyrolobium saharae Pomel
 Artemisia atlantica Coss.
-Astragalus akkensis Coss[16].
+Astragalus akkensis Coss.
 Astragalus eremophilus Boiss. = Astragalus geniorum Maire
 Astragalus reinii subsp. nemorosus (Batt.) Maire
 Asyneuma rigidum subsp. aurasiacum (Batt. &amp; Trab.) Damboldt = Campanula aurasiaca (Batt. &amp; Trab.) Batt. &amp; Trab.
@@ -760,7 +863,7 @@
 Bellis annua subsp. microcephala (Lange) Nyman = Bellis annua var. vergens Pomel
 Bellis prostrata Pomel = Bellis repens auct.
 Quasi menacé.
-Bergia mairei Quézel[17]
+Bergia mairei Quézel
 Bergia suffruticosa (Delile) Fenzl
 Bidens tripartitus L.
 Boscia senegalensis (Pers.) Lam. ex Poir.
@@ -777,7 +880,7 @@
 Calamintha nervosa Pomel = Satureja pomelii Briq.
 Calendula suffruticosa subsp. monardii (Boiss. &amp; Reut.) Ohle = Calendula monardii Boiss. &amp; Reut.
 Calligonum calvescens Maire
-Callitriche lusitanica Schotsman[18],[19]
+Callitriche lusitanica Schotsman,
 Calobota saharae (Coss. &amp; Dur.) Boatwr. &amp; B.E.van Wyk = Genista saharae Coss. &amp; Durieu
 Campanula alata Desf.
 Quasi menacé.
@@ -809,7 +912,7 @@
 Convolvulus durandoi Pomel
 En danger critique d'extinction
 Convolvulus fatmensis Kunze
-Convolvulus supinus Coss. &amp; Kralik[20]
+Convolvulus supinus Coss. &amp; Kralik
 Cordia sinensis  Lam. = Cordia rothii Roem. &amp; Schult.
 Corydalis solida (L.) Clairv.
 Cotula anthemoides L.
@@ -834,18 +937,18 @@
 Elatine alsinastrum L.
 Elatine brochonii Clavaud
 Quasi menacé.
-Elatine macropoda Guss. = Elatine hydropiper var. pedunculata Moris[21]
+Elatine macropoda Guss. = Elatine hydropiper var. pedunculata Moris
 Epilobium hirsutum L.
 Epilobium parviflorum Schreb. = Epilobium numidicum (Batt.) Batt.
 Endémique algérienne
 En danger critique d'extinction.
 Epimedium perralderianum Coss.
-Erodium asplenioides (Desf.) Willd. = Erodium choulettianum Coss. ex Batt[22].
+Erodium asplenioides (Desf.) Willd. = Erodium choulettianum Coss. ex Batt.
 Erodium battandieranum Rouy
 Erodium oxyrhynchum subsp. bryoniifolium (Boiss.) Schönb.-Tem. = Erodium bryoniifolium Boiss.
 Erodium populifolium L'Hér. = Erodium pachyrhizum Coss. &amp; Durieu
 Erodium trifolium (Cav.) Guitt. = Erodium montanum Coss. &amp; Durieu
-Euonymus latifolius Mill[23].
+Euonymus latifolius Mill.
 Euphorbia dendroides L.
 Euphorbia hieroglyphica Coss. &amp; Durieu ex Boiss.
 Euphorbia villosa Willd. = Euphorbia pilosa auct.
@@ -865,20 +968,20 @@
 Genista hirsuta subsp. erioclada (Spach) Raynaud = Genista erioclada subsp. atlantica (Spach) Maire
 Genista spinulosa Pomel
 Genista triacanthos subsp. vepres (Pomel) P.E.Gibbs = Genista vepres Pomel
-Gnaphalium uliginosum L[24].
+Gnaphalium uliginosum L.
 Guenthera dimorpha (Coss. &amp; Durieu) Gómez-Campo = Brassica dimorpha Coss. &amp; Durieu
 Guenthera setulosa (Boiss. &amp; Reut.) Gómez-Campo = Eruca setulosa Boiss. &amp; Reut.
 Hedysarum perrauderianum Coss. &amp; Durieu
 Helianthemum eriocephalum Pomel
 Helianthemum geniorum Maire
 Helianthemum getulum Pomel
-Helianthemum helianthemoides (Desf.) Grosser[25]
-Helianthemum lippii (L.) Dum.Cours[26].
+Helianthemum helianthemoides (Desf.) Grosser
+Helianthemum lippii (L.) Dum.Cours.
 Helianthemum maritimum Pomel
 X Helianthemum murbeckii Faure
-Heliotropium digynum (Forssk.) C.Chr[27].
+Heliotropium digynum (Forssk.) C.Chr.
 Heliotropium strigosum Willd.
-Helminthotheca comosa (Boiss.) Holub[28]
+Helminthotheca comosa (Boiss.) Holub
 Henophyton deserti (Coss. &amp; Durieu) Coss. &amp; Durieu = Oudneya africana R.Br.
 Hieracium amplexicaule subsp. atlanticum (Fr.) Zahn
 Hieracium amplexicaule subsp. peyerimhoffii (Maire) Zahn = Hieracium peyerimhoffii Maire
@@ -901,23 +1004,23 @@
 Laggera decurrens (Vahl) Hepper &amp; J.R.I.Wood = Blumea gariepina DC.
 Lathyrus allardii Batt.
 Lathyrus numidicus Batt.
-Launaea pumila (Cav.) Kuntze[29]
+Launaea pumila (Cav.) Kuntze
 Laurembergia repens (L.) P.J.Bergius = Laurembergia tetrandra auct.
 Legousia juliani (Batt.) Briq. = Specularia juliani Batt.
 Lepidium latifolium L.
 Limonium acutifolium (Rchb.) C.E.Salmon = Limonium minutum auct.
 Limonium asparagoides (Batt.) Maire
 Limonium battandieri Greuter &amp; Burdet = Limonium gummiferum auct.
-Limonium cymuliferum (Boiss.) Sauvage &amp; Vindt[30].
+Limonium cymuliferum (Boiss.) Sauvage &amp; Vindt.
 Quasi menacé
-Limonium gougetianum subsp. multiceps (Pomel) Greuter &amp; Burdet[31].
+Limonium gougetianum subsp. multiceps (Pomel) Greuter &amp; Burdet.
 Limonium letourneuxii (Coss. ex Batt.) Greuter &amp; Burdet
 Limonium ramosissimum (Poir.) Maire
-Limonium spathulatum (Desf.) Kuntze[32].
+Limonium spathulatum (Desf.) Kuntze.
 Limonium virgatum (Willd.) Fourr.
 Linaria atlantica Boiss. &amp; Reut.
 Linaria decipiens Batt.
-Linaria dissita Pomel = [33].
+Linaria dissita Pomel = .
 Linaria gharbensis Batt. &amp; Pit.
 Linaria multicaulis (L.) Mill.
 Linaria pelisseriana (L.) Mill.
@@ -939,7 +1042,7 @@
 Mantisalca delestrei (Spach) Briq. &amp; Cavill.
 Marrubium alyssoides Pomel
 Marrubium supinum L.
-Mauranthemum reboudianum (Pomel) Vogt &amp; Oberpr[34].
+Mauranthemum reboudianum (Pomel) Vogt &amp; Oberpr.
 Mecomischus pedunculatus (Coss. &amp; Durieu) Oberpr. &amp; Greuter
 Mentha cervina L.
 Quasi menacé
@@ -956,8 +1059,8 @@
 Odontites triboutii Gren. &amp; Paill. = Odontites fradinii Pomel
 Odontites violaceus Pomel
 Oenanthe lachenalii C.C.Gmel.
-Oenothera stricta Ledeb. ex Link[35]
-Oldenlandia capensis L.f[36].
+Oenothera stricta Ledeb. ex Link
+Oldenlandia capensis L.f.
 Olea europaea subsp. laperrinei (Batt. &amp; Trab.) Cif. = Olea laperrinei Batt. &amp; Trab.
 Ononis angustissima Lam. = Ononis natrix subsp. angustissima (Lam.) Sirj.
 Ononis aragonensis Asso
@@ -978,7 +1081,7 @@
 Parnassia palustris L.
 Pedicularis numidica Pomel
 Pegolettia senegalensis Cass. = Pegolettia dubiefiana Quézel
-Pentzia monodiana Maire[37]
+Pentzia monodiana Maire
 Endémique algérienne.
 Persicaria hydropiper (L.) Spach = Polygonum hydropiper L.
 Persicaria senegalensis (Meisn.) Soják = Polygonum senegalense var. numidicum Maire
@@ -990,7 +1093,7 @@
 Plantago tunetana Murb.
 Polycarpaea repens (Forssk.) Asch. &amp; Schweinf.
 Polygala munbyana Boiss. &amp; Reut.
-Populus euphratica Oliv[38].
+Populus euphratica Oliv.
 Populus tremula L.
 Primula acaulis subsp. atlantica (Maire &amp; Wilczek) Greuter &amp; Burdet
 Pulicaria filaginoides Pomel
@@ -1044,7 +1147,7 @@
 Silene sessionis Batt.
 Silene velutinoides Pomel
 Sixalix cartenniana (Pons &amp; Quézel) Greuter &amp; Burdet ≡ Scabiosa cartenniana Pons &amp; Quézel
-Solenopsis bicolor (Batt.) Greuter &amp; Burdet ≡ Laurentia bicolor (Batt.) Maire &amp; Steph[39].
+Solenopsis bicolor (Batt.) Greuter &amp; Burdet ≡ Laurentia bicolor (Batt.) Maire &amp; Steph.
 Quasi menacé.
 Sorbus aria (L.) Crantz
 Sorbus domestica L.
@@ -1053,7 +1156,7 @@
 Vulnérable.
 Spergularia microsperma subsp. fontenellei (Maire) Greuter &amp; Burdet = Spergularia fontenellei (Maire) Ozenda
 Spergularia pycnorrhiza Foucaud ex Batt.
-Spergularia tangerina P.Monnier[40]
+Spergularia tangerina P.Monnier
 Spergularia tenuifolia Pomel
 Stachys guyoniana Batt.
 Stachys mialhesii de Noé
@@ -1063,10 +1166,10 @@
 Tetragonolobus conjugatus subsp. requienii (Sanguin.) E.Domínguez &amp; Galiano = Tetragonolobus gussonei A.L.P.Huet ex Nyman
 Teucrium atratum Pomel
 Teucrium kabylicum Batt.
-Teucrium maghrebinum Greuter &amp; Burdet[41]
+Teucrium maghrebinum Greuter &amp; Burdet
 Teucrium polium L. subsp. polium
 Teucrium santae Quézel &amp; Simonn.
-Thlaspi atlanticum Batt[42].
+Thlaspi atlanticum Batt.
 Thymus dreatensis Batt.
 Thymus guyonii de Noé
 Thymus lanceolatus Desf.
@@ -1084,7 +1187,7 @@
 Verbascum faurei (Murb.) Hub.-Mor. = Celsia faurei Murb.
 Verbascum pinnatisectum (Batt.) Benedî = Celsia pinnatisecta (Batt.) Batt.
 Veronica scutellata L.
-Viburnum lantana L[43].
+Viburnum lantana L.
 Vicia fulgens Batt.
 En danger critique d'extinction.
 Volutaria saharae (L.Chevall.) Wagenitz
@@ -1094,39 +1197,41 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_non_cultiv%C3%A9es_prot%C3%A9g%C3%A9es_sur_l%E2%80%99ensemble_du_territoire_alg%C3%A9rien</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_non_cultivées_protégées_sur_l’ensemble_du_territoire_algérien</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_non_cultiv%C3%A9es_prot%C3%A9g%C3%A9es_sur_l%E2%80%99ensemble_du_territoire_alg%C3%A9rien</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Autres plantes méritant une protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plantes suivantes ne sont pas mentionnées dans le décret, mais mériteraient de l'être.
 Agrostis tenerrima Trin.
 Même si l'UICN ne demande pas sa protection légale, elle est quasi-menacée (NT).
 Alnus glutinosa (L.) Gaertn.
-Beddiar A. et Mekadem M. demandent sa protection dans le nord-est algérien, tout en soulignant la nécessité de gérer les boisements[44].
+Beddiar A. et Mekadem M. demandent sa protection dans le nord-est algérien, tout en soulignant la nécessité de gérer les boisements.
 Asplenium hemionitis L.
-Si elle n'est pas disparue[45], cette fougère doit être protégée.
+Si elle n'est pas disparue, cette fougère doit être protégée.
 * Balanites aegyptiaca Delile
 Même si cette espèce est cultivée dans certains pays, ses populations naturelles en Algérie sont très rares dans la partie Nord du Sahara et méritent d'être sauvegardées sous peine de disparaître petit à petit. Leur remplacement pas d'autres provenances ne connaîtra pas meilleur sort.
 [réf. nécessaire]
@@ -1171,7 +1276,7 @@
 Pinus pinaster subsp. renoui (Villar) Maire
 Classée par l'UICN comme espèce en danger (EN).
 Saxifraga cymbalaria L.
-Très rare[46], dans les gorges du Djendjen au Sud de Texenna.
+Très rare, dans les gorges du Djendjen au Sud de Texenna.
 Serapias stenopetala Maire &amp; T.Stephenson
 L'UICN la classe comme espèce en danger critique d'extinction (CR) et demande sa protection et sa conservation rapides.
 Sisymbrella aspera subsp. munbyana (Boiss. &amp; Reut.) Greuter &amp; Burdet
